--- a/testdata/ticket_data.xlsx
+++ b/testdata/ticket_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avraa\PycharmProjects\PythonProject\Playwright3\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2A069-9DE3-4067-A6BF-73F98A9ECA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1EA319-02FB-471C-9B82-9A7DC7FF7DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>

--- a/testdata/ticket_data.xlsx
+++ b/testdata/ticket_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avraa\PycharmProjects\PythonProject\Playwright3\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1EA319-02FB-471C-9B82-9A7DC7FF7DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5895448-5B8D-4AB4-B849-2473B28508A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>86</v>
